--- a/nodes_source_analyses/energy/transport/transport_truck_using_electricity.converter.xlsx
+++ b/nodes_source_analyses/energy/transport/transport_truck_using_electricity.converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10215"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/transport/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Projects/etdataset/nodes_source_analyses/energy/transport/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C58F19A-E30F-0247-90D0-EFDB64DC7D60}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DD3FB6-C08C-2641-83DD-CA41D54007A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26820" tabRatio="762" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30080" yWindow="500" windowWidth="30080" windowHeight="16100" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,10 +37,20 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -50,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="110">
   <si>
     <t>Source</t>
   </si>
@@ -225,30 +235,6 @@
   </si>
   <si>
     <t>transport_truck_using_electricity.converter.ad</t>
-  </si>
-  <si>
-    <t>availability</t>
-  </si>
-  <si>
-    <t>forecasting_error</t>
-  </si>
-  <si>
-    <t>full_load_hours</t>
-  </si>
-  <si>
-    <t>part_load_efficiency_penalty</t>
-  </si>
-  <si>
-    <t>typical_input_capacity</t>
-  </si>
-  <si>
-    <t>network_capacity_available_in_mw</t>
-  </si>
-  <si>
-    <t>part_load_operating_point</t>
-  </si>
-  <si>
-    <t>network_capacity_used_in_mw</t>
   </si>
   <si>
     <t>http://www.theicct.org/sites/default/files/publications/CE_Delft_4841_Zero_emissions_trucks_Def.pdf</t>
@@ -449,9 +435,6 @@
     <t>mln</t>
   </si>
   <si>
-    <t>Note: Eurostat freight transport excludes all vehicles &lt; 3.5 tonne. Since vans are included in the truck category in the ETM, we calculated the weighted efficiency</t>
-  </si>
-  <si>
     <t xml:space="preserve">Note: used 2016 data since tonne kms is only available for 2016. Used van vehicle kms from different Statline than tonne kms since we are interested in all vehicle kms, not just loaded </t>
   </si>
   <si>
@@ -462,6 +445,18 @@
   </si>
   <si>
     <t>km/mj</t>
+  </si>
+  <si>
+    <t>Note: vans are no longer part of trucks in the ETM</t>
+  </si>
+  <si>
+    <t>Weighted average is therefore no longer used</t>
+  </si>
+  <si>
+    <t>Only truck data is used</t>
+  </si>
+  <si>
+    <t>Note: Eurostat freight transport excludes all vehicles &lt; 3.5 tonne.</t>
   </si>
 </sst>
 </file>
@@ -1264,7 +1259,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1384,65 +1379,63 @@
     <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="24" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="28" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="177" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="177" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1452,6 +1445,7 @@
     <xf numFmtId="165" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="35" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="35" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2740,10 +2734,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:J29"/>
+  <dimension ref="B1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2768,38 +2762,38 @@
       <c r="G1" s="30"/>
     </row>
     <row r="2" spans="2:10" ht="16" customHeight="1">
-      <c r="B2" s="134" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
+      <c r="B2" s="133" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="134"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="134"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="134"/>
-      <c r="C5" s="135"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
     </row>
     <row r="6" spans="2:10" ht="17" thickBot="1">
       <c r="D6" s="30"/>
@@ -2862,255 +2856,103 @@
     </row>
     <row r="11" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1">
       <c r="B11" s="18"/>
-      <c r="C11" s="116" t="s">
-        <v>84</v>
+      <c r="C11" s="114" t="s">
+        <v>76</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E11" s="28">
         <f>'Research data'!E7</f>
-        <v>1.1075069559277897</v>
+        <v>1.7491695887192016</v>
       </c>
       <c r="F11" s="33"/>
-      <c r="G11" s="122" t="s">
-        <v>81</v>
+      <c r="G11" s="120" t="s">
+        <v>73</v>
       </c>
       <c r="H11" s="25"/>
-      <c r="I11" s="101" t="s">
-        <v>63</v>
+      <c r="I11" s="99" t="s">
+        <v>55</v>
       </c>
       <c r="J11" s="13"/>
     </row>
-    <row r="12" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1">
-      <c r="B12" s="18"/>
-      <c r="C12" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="15" t="s">
+    <row r="12" spans="2:10">
+      <c r="B12" s="34"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="81"/>
+    </row>
+    <row r="13" spans="2:10" ht="17" thickBot="1">
+      <c r="B13" s="34"/>
+      <c r="C13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="78"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="81"/>
+    </row>
+    <row r="14" spans="2:10" ht="17" thickBot="1">
+      <c r="B14" s="34"/>
+      <c r="C14" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="35">
+        <f>'Research data'!E10</f>
+        <v>12</v>
+      </c>
+      <c r="F14" s="33"/>
+      <c r="G14" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="33"/>
+      <c r="I14" s="106" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="81"/>
+    </row>
+    <row r="15" spans="2:10" ht="17" thickBot="1">
+      <c r="B15" s="34"/>
+      <c r="C15" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="86">
-        <v>0</v>
-      </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1">
-      <c r="B13" s="18"/>
-      <c r="C13" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="86">
-        <v>0</v>
-      </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="14" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1">
-      <c r="B14" s="18"/>
-      <c r="C14" s="85" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="86">
-        <v>1062.9980361595201</v>
-      </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1">
-      <c r="B15" s="18"/>
-      <c r="C15" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="86">
+      <c r="E15" s="35">
         <v>0</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
-      <c r="H15" s="25"/>
+      <c r="H15" s="33"/>
       <c r="I15" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="13"/>
-    </row>
-    <row r="16" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1">
-      <c r="B16" s="18"/>
-      <c r="C16" s="85" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="86">
-        <v>0</v>
-      </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="13"/>
-    </row>
-    <row r="17" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1">
-      <c r="B17" s="18"/>
-      <c r="C17" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="86">
-        <v>0.01</v>
-      </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="13"/>
-    </row>
-    <row r="18" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1">
-      <c r="B18" s="18"/>
-      <c r="C18" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="86">
-        <v>0</v>
-      </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" s="13"/>
-    </row>
-    <row r="19" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1">
-      <c r="B19" s="18"/>
-      <c r="C19" s="85" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="86">
-        <v>0.01</v>
-      </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19" s="13"/>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="34"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="81"/>
-    </row>
-    <row r="21" spans="2:10" ht="17" thickBot="1">
-      <c r="B21" s="34"/>
-      <c r="C21" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="78"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="81"/>
-    </row>
-    <row r="22" spans="2:10" ht="17" thickBot="1">
-      <c r="B22" s="34"/>
-      <c r="C22" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="35">
-        <f>'Research data'!E10</f>
-        <v>12</v>
-      </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="108" t="s">
-        <v>61</v>
-      </c>
-      <c r="J22" s="81"/>
-    </row>
-    <row r="23" spans="2:10" ht="17" thickBot="1">
-      <c r="B23" s="34"/>
-      <c r="C23" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="35">
-        <v>0</v>
-      </c>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="J23" s="81"/>
-    </row>
-    <row r="24" spans="2:10" ht="17" thickBot="1">
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="38"/>
-    </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1"/>
+      <c r="J15" s="81"/>
+    </row>
+    <row r="16" spans="2:10" ht="17" thickBot="1">
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="38"/>
+    </row>
+    <row r="21" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:G5"/>
@@ -3127,7 +2969,7 @@
   </sheetPr>
   <dimension ref="B2:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -3172,15 +3014,15 @@
       </c>
       <c r="F4" s="84"/>
       <c r="G4" s="84" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H4" s="84"/>
       <c r="I4" s="84" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J4" s="84"/>
       <c r="K4" s="84" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="18" customHeight="1">
@@ -3207,22 +3049,22 @@
     </row>
     <row r="7" spans="2:11" ht="17" thickBot="1">
       <c r="B7" s="42"/>
-      <c r="C7" s="118" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="119" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="121">
+      <c r="C7" s="116" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="117" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="119">
         <f>I7</f>
-        <v>1.1075069559277897</v>
+        <v>1.7491695887192016</v>
       </c>
       <c r="F7" s="46"/>
-      <c r="G7" s="107"/>
+      <c r="G7" s="105"/>
       <c r="H7" s="43"/>
-      <c r="I7" s="121">
+      <c r="I7" s="119">
         <f>Notes!E94</f>
-        <v>1.1075069559277897</v>
+        <v>1.7491695887192016</v>
       </c>
       <c r="J7" s="43"/>
       <c r="K7" s="56"/>
@@ -3263,7 +3105,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="46"/>
-      <c r="G10" s="107"/>
+      <c r="G10" s="105"/>
       <c r="H10" s="43"/>
       <c r="I10" s="50">
         <f>Notes!C12</f>
@@ -3309,7 +3151,7 @@
         <v>184310.5</v>
       </c>
       <c r="F13" s="10"/>
-      <c r="G13" s="105">
+      <c r="G13" s="103">
         <f>Notes!C47</f>
         <v>200621</v>
       </c>
@@ -3319,12 +3161,12 @@
         <v>168000</v>
       </c>
       <c r="J13" s="46"/>
-      <c r="K13" s="103" t="s">
-        <v>66</v>
+      <c r="K13" s="101" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="17" thickBot="1">
-      <c r="C14" s="102" t="s">
+      <c r="C14" s="100" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="82" t="s">
@@ -3335,15 +3177,15 @@
         <v>2600</v>
       </c>
       <c r="F14" s="52"/>
-      <c r="G14" s="104">
+      <c r="G14" s="102">
         <f>Notes!C54+Notes!C55</f>
         <v>2600</v>
       </c>
       <c r="H14" s="43"/>
       <c r="I14" s="46"/>
       <c r="J14" s="46"/>
-      <c r="K14" s="103" t="s">
-        <v>65</v>
+      <c r="K14" s="101" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3365,31 +3207,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="87" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="87" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="87" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="87" customWidth="1"/>
-    <col min="6" max="7" width="13.1640625" style="87" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="88" customWidth="1"/>
-    <col min="9" max="9" width="31.5" style="88" customWidth="1"/>
-    <col min="10" max="10" width="98.5" style="87" customWidth="1"/>
-    <col min="11" max="16384" width="33.1640625" style="87"/>
+    <col min="1" max="2" width="3.5" style="85" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="85" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="85" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="85" customWidth="1"/>
+    <col min="6" max="7" width="13.1640625" style="85" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="86" customWidth="1"/>
+    <col min="9" max="9" width="31.5" style="86" customWidth="1"/>
+    <col min="10" max="10" width="98.5" style="85" customWidth="1"/>
+    <col min="11" max="16384" width="33.1640625" style="85"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1"/>
     <row r="2" spans="1:10">
-      <c r="B2" s="89"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="90"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="88"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="B3" s="92"/>
+      <c r="B3" s="90"/>
       <c r="C3" s="12" t="s">
         <v>16</v>
       </c>
@@ -3397,23 +3239,23 @@
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="94"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="92"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="B4" s="92"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="94"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="92"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="96"/>
+      <c r="B5" s="94"/>
       <c r="C5" s="75" t="s">
         <v>17</v>
       </c>
@@ -3427,235 +3269,235 @@
         <v>18</v>
       </c>
       <c r="G5" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="97" t="s">
-        <v>75</v>
+      <c r="I5" s="95" t="s">
+        <v>67</v>
       </c>
       <c r="J5" s="75" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="92"/>
+      <c r="B6" s="90"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
       <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="92"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="110" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="94" t="s">
+      <c r="B7" s="90"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="108" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="94">
+      <c r="F7" s="92">
         <v>2013</v>
       </c>
-      <c r="G7" s="94">
+      <c r="G7" s="92">
         <v>2012</v>
       </c>
-      <c r="H7" s="99"/>
-      <c r="I7" s="115" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" s="111" t="s">
-        <v>59</v>
+      <c r="H7" s="97"/>
+      <c r="I7" s="113" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="109" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="92"/>
-      <c r="C8" s="100" t="s">
+      <c r="B8" s="90"/>
+      <c r="C8" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="B9" s="92"/>
-      <c r="C9" s="98" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="B10" s="92"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="B11" s="92"/>
-      <c r="C11" s="120" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="110" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="94" t="s">
+      <c r="B11" s="90"/>
+      <c r="C11" s="118" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="108" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="94">
+      <c r="F11" s="92">
         <v>2013</v>
       </c>
-      <c r="G11" s="94">
+      <c r="G11" s="92">
         <v>2012</v>
       </c>
-      <c r="H11" s="94"/>
-      <c r="I11" s="115" t="s">
-        <v>77</v>
-      </c>
-      <c r="J11" s="110" t="s">
+      <c r="H11" s="92"/>
+      <c r="I11" s="113" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="108" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="B12" s="92"/>
-      <c r="C12" s="98" t="s">
+      <c r="B12" s="90"/>
+      <c r="C12" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="B13" s="92"/>
-      <c r="C13" s="106" t="s">
+      <c r="B13" s="90"/>
+      <c r="C13" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-    </row>
-    <row r="15" spans="1:10" s="123" customFormat="1">
-      <c r="A15" s="131"/>
-      <c r="B15" s="131"/>
-      <c r="C15" s="131" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="131" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="131" t="s">
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+    </row>
+    <row r="15" spans="1:10" s="121" customFormat="1">
+      <c r="A15" s="129"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="129" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="129" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="131"/>
-      <c r="G15" s="131">
+      <c r="F15" s="129"/>
+      <c r="G15" s="129">
         <v>2015</v>
       </c>
-      <c r="H15" s="132" t="s">
-        <v>87</v>
-      </c>
-      <c r="I15" s="132" t="s">
+      <c r="H15" s="130" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="130" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" s="130"/>
+    </row>
+    <row r="16" spans="1:10" s="121" customFormat="1">
+      <c r="A16" s="129"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="129" t="s">
         <v>88</v>
       </c>
-      <c r="J15" s="132"/>
-    </row>
-    <row r="16" spans="1:10" s="123" customFormat="1">
-      <c r="A16" s="131"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="131" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="131" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" s="131" t="s">
+      <c r="D16" s="129" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="131"/>
-      <c r="G16" s="131">
+      <c r="F16" s="129"/>
+      <c r="G16" s="129">
         <v>2015</v>
       </c>
-      <c r="H16" s="132" t="s">
-        <v>87</v>
-      </c>
-      <c r="I16" s="132" t="s">
-        <v>88</v>
-      </c>
-      <c r="J16" s="132"/>
+      <c r="H16" s="130" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" s="130" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="130"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="131"/>
-      <c r="B17" s="131"/>
-      <c r="C17" s="131" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="131" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="131" t="s">
+      <c r="A17" s="129"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="129" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="131"/>
-      <c r="G17" s="131">
+      <c r="F17" s="129"/>
+      <c r="G17" s="129">
         <v>2016</v>
       </c>
-      <c r="H17" s="132" t="s">
-        <v>87</v>
-      </c>
-      <c r="I17" s="132" t="s">
-        <v>99</v>
-      </c>
-      <c r="J17" s="132"/>
+      <c r="H17" s="130" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="130" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="130"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="131"/>
-      <c r="B18" s="131"/>
-      <c r="C18" s="131" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="131" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="131" t="s">
+      <c r="A18" s="129"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="129" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="129" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="131"/>
-      <c r="G18" s="131">
+      <c r="F18" s="129"/>
+      <c r="G18" s="129">
         <v>2016</v>
       </c>
-      <c r="H18" s="132" t="s">
-        <v>87</v>
-      </c>
-      <c r="I18" s="132" t="s">
-        <v>101</v>
-      </c>
-      <c r="J18" s="132"/>
+      <c r="H18" s="130" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="130" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" s="130"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3667,34 +3509,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:K143"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="109" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="109" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="109" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="109"/>
-    <col min="5" max="5" width="17.6640625" style="109" customWidth="1"/>
-    <col min="6" max="10" width="10.83203125" style="109"/>
-    <col min="11" max="11" width="10" style="109" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="109"/>
+    <col min="1" max="1" width="5.5" style="107" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="107" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="107" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="107"/>
+    <col min="5" max="5" width="17.6640625" style="107" customWidth="1"/>
+    <col min="6" max="10" width="10.83203125" style="107"/>
+    <col min="11" max="11" width="10" style="107" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="107"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
     <row r="2" spans="2:11">
-      <c r="B2" s="112"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
     </row>
     <row r="3" spans="2:11" s="19" customFormat="1">
       <c r="B3" s="74"/>
@@ -3702,7 +3544,7 @@
         <v>40</v>
       </c>
       <c r="D3" s="75" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E3" s="75"/>
       <c r="F3" s="75"/>
@@ -3713,1154 +3555,1164 @@
       <c r="K3" s="75"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="114"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="114"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="114"/>
-      <c r="C6" s="110" t="s">
+      <c r="B6" s="112"/>
+      <c r="C6" s="108" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="112"/>
+      <c r="C7" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="112"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="112"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="112"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="112"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="112"/>
+      <c r="C12" s="108">
+        <v>12</v>
+      </c>
+      <c r="D12" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="114"/>
-      <c r="C7" s="110" t="s">
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="112"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="112"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="112"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="112"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="112"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="112"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="108"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="112"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="108"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="112"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="108"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="112"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="108"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="112"/>
+      <c r="C22" s="108" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="108"/>
+      <c r="K22" s="108"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="112"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="108"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="112"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="108"/>
+      <c r="K24" s="108"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="112"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="108"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="112"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="108"/>
+      <c r="K26" s="108"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="112"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="108"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="112"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="108"/>
+      <c r="J28" s="108"/>
+      <c r="K28" s="108"/>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="112"/>
+      <c r="C29" s="108">
+        <v>168000</v>
+      </c>
+      <c r="D29" s="108" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="108"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="108"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="112"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="108"/>
+      <c r="J30" s="108"/>
+      <c r="K30" s="108"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="112"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="108"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="108"/>
+      <c r="J31" s="108"/>
+      <c r="K31" s="108"/>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="112"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="108"/>
+      <c r="I32" s="108"/>
+      <c r="J32" s="108"/>
+      <c r="K32" s="108"/>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="112"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="108"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="108"/>
+      <c r="J33" s="108"/>
+      <c r="K33" s="108"/>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="112"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="108"/>
+      <c r="J34" s="108"/>
+      <c r="K34" s="108"/>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="112"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="108"/>
+      <c r="E35" s="108"/>
+      <c r="F35" s="108"/>
+      <c r="G35" s="108"/>
+      <c r="H35" s="108"/>
+      <c r="I35" s="108"/>
+      <c r="J35" s="108"/>
+      <c r="K35" s="108"/>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="112"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="108"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="108"/>
+      <c r="J36" s="108"/>
+      <c r="K36" s="108"/>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" s="112"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="108"/>
+      <c r="G37" s="108"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="108"/>
+      <c r="J37" s="108"/>
+      <c r="K37" s="108"/>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="112"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="108"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="108"/>
+      <c r="G38" s="108"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="108"/>
+      <c r="J38" s="108"/>
+      <c r="K38" s="108"/>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="112"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="108"/>
+      <c r="G39" s="108"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="108"/>
+      <c r="J39" s="108"/>
+      <c r="K39" s="108"/>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="112"/>
+      <c r="C40" s="108"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="108"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="108"/>
+      <c r="K40" s="108"/>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="112"/>
+      <c r="C41" s="108" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="108"/>
+      <c r="E41" s="108"/>
+      <c r="F41" s="108"/>
+      <c r="G41" s="108"/>
+      <c r="H41" s="108"/>
+      <c r="I41" s="108"/>
+      <c r="J41" s="108"/>
+      <c r="K41" s="108"/>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="112"/>
+      <c r="C42" s="108" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="108"/>
+      <c r="E42" s="108"/>
+      <c r="F42" s="108"/>
+      <c r="G42" s="108"/>
+      <c r="H42" s="108"/>
+      <c r="I42" s="108"/>
+      <c r="J42" s="108"/>
+      <c r="K42" s="108"/>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="112"/>
+      <c r="C43" s="108"/>
+      <c r="D43" s="108"/>
+      <c r="E43" s="108"/>
+      <c r="F43" s="108"/>
+      <c r="G43" s="108"/>
+      <c r="H43" s="108"/>
+      <c r="I43" s="108"/>
+      <c r="J43" s="108"/>
+      <c r="K43" s="108"/>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="112"/>
+      <c r="C44" s="108"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="108"/>
+      <c r="H44" s="108"/>
+      <c r="I44" s="108"/>
+      <c r="J44" s="108"/>
+      <c r="K44" s="108"/>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="112"/>
+      <c r="C45" s="108"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="108"/>
+      <c r="F45" s="108"/>
+      <c r="G45" s="108"/>
+      <c r="H45" s="108"/>
+      <c r="I45" s="108"/>
+      <c r="J45" s="108"/>
+      <c r="K45" s="108"/>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="112"/>
+      <c r="C46" s="108"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="108"/>
+      <c r="F46" s="108"/>
+      <c r="G46" s="108"/>
+      <c r="H46" s="108"/>
+      <c r="I46" s="108"/>
+      <c r="J46" s="108"/>
+      <c r="K46" s="108"/>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="112"/>
+      <c r="C47" s="108">
+        <v>200621</v>
+      </c>
+      <c r="D47" s="108" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="108"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="108"/>
+      <c r="I47" s="108"/>
+      <c r="J47" s="108"/>
+      <c r="K47" s="108"/>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="112"/>
+      <c r="C48" s="108"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="108"/>
+      <c r="I48" s="108"/>
+      <c r="J48" s="108"/>
+      <c r="K48" s="108"/>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="112"/>
+      <c r="C49" s="108"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="108"/>
+      <c r="F49" s="108"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="108"/>
+      <c r="I49" s="108"/>
+      <c r="J49" s="108"/>
+      <c r="K49" s="108"/>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="112"/>
+      <c r="C50" s="108"/>
+      <c r="D50" s="108"/>
+      <c r="E50" s="108"/>
+      <c r="F50" s="108"/>
+      <c r="G50" s="108"/>
+      <c r="H50" s="108"/>
+      <c r="I50" s="108"/>
+      <c r="J50" s="108"/>
+      <c r="K50" s="108"/>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="112"/>
+      <c r="C51" s="108"/>
+      <c r="D51" s="108"/>
+      <c r="E51" s="108"/>
+      <c r="F51" s="108"/>
+      <c r="G51" s="108"/>
+      <c r="H51" s="108"/>
+      <c r="I51" s="108"/>
+      <c r="J51" s="108"/>
+      <c r="K51" s="108"/>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52" s="112"/>
+      <c r="C52" s="108"/>
+      <c r="D52" s="108"/>
+      <c r="E52" s="108"/>
+      <c r="F52" s="108"/>
+      <c r="G52" s="108"/>
+      <c r="H52" s="108"/>
+      <c r="I52" s="108"/>
+      <c r="J52" s="108"/>
+      <c r="K52" s="108"/>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" s="112"/>
+      <c r="C53" s="108"/>
+      <c r="D53" s="108"/>
+      <c r="E53" s="108"/>
+      <c r="F53" s="108"/>
+      <c r="G53" s="108"/>
+      <c r="H53" s="108"/>
+      <c r="I53" s="108"/>
+      <c r="J53" s="108"/>
+      <c r="K53" s="108"/>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54" s="112"/>
+      <c r="C54" s="108">
+        <v>2080</v>
+      </c>
+      <c r="D54" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" s="108"/>
+      <c r="F54" s="108"/>
+      <c r="G54" s="108"/>
+      <c r="H54" s="108"/>
+      <c r="I54" s="108"/>
+      <c r="J54" s="108"/>
+      <c r="K54" s="108"/>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55" s="112"/>
+      <c r="C55" s="108">
+        <v>520</v>
+      </c>
+      <c r="D55" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" s="108"/>
+      <c r="F55" s="108"/>
+      <c r="G55" s="108"/>
+      <c r="H55" s="108"/>
+      <c r="I55" s="108"/>
+      <c r="J55" s="108"/>
+      <c r="K55" s="108"/>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56" s="112"/>
+      <c r="C56" s="108"/>
+      <c r="D56" s="108"/>
+      <c r="E56" s="108"/>
+      <c r="F56" s="108"/>
+      <c r="G56" s="108"/>
+      <c r="H56" s="108"/>
+      <c r="I56" s="108"/>
+      <c r="J56" s="108"/>
+      <c r="K56" s="108"/>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" s="112"/>
+      <c r="C57" s="108"/>
+      <c r="D57" s="108"/>
+      <c r="E57" s="108"/>
+      <c r="F57" s="108"/>
+      <c r="G57" s="108"/>
+      <c r="H57" s="108"/>
+      <c r="I57" s="108"/>
+      <c r="J57" s="108"/>
+      <c r="K57" s="108"/>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" s="112"/>
+      <c r="C58" s="108"/>
+      <c r="D58" s="108"/>
+      <c r="E58" s="108"/>
+      <c r="F58" s="108"/>
+      <c r="G58" s="108"/>
+      <c r="H58" s="108"/>
+      <c r="I58" s="108"/>
+      <c r="J58" s="108"/>
+      <c r="K58" s="108"/>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59" s="112"/>
+      <c r="C59" s="108"/>
+      <c r="D59" s="108"/>
+      <c r="E59" s="108"/>
+      <c r="F59" s="108"/>
+      <c r="G59" s="108"/>
+      <c r="H59" s="108"/>
+      <c r="I59" s="108"/>
+      <c r="J59" s="108"/>
+      <c r="K59" s="108"/>
+    </row>
+    <row r="60" spans="2:11">
+      <c r="B60" s="112"/>
+      <c r="C60" s="108"/>
+      <c r="D60" s="108"/>
+      <c r="E60" s="108"/>
+      <c r="F60" s="108"/>
+      <c r="G60" s="108"/>
+      <c r="H60" s="108"/>
+      <c r="I60" s="108"/>
+      <c r="J60" s="108"/>
+      <c r="K60" s="108"/>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="B61" s="112"/>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="B62" s="112"/>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="B63" s="112"/>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="B64" s="112"/>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" s="112"/>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" s="112"/>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" s="112"/>
+      <c r="C67" s="115" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" ht="17" thickBot="1">
+      <c r="B68" s="112"/>
+      <c r="C68" s="115" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" ht="17" thickBot="1">
+      <c r="B69" s="112"/>
+      <c r="D69" s="131" t="s">
+        <v>94</v>
+      </c>
+      <c r="E69" s="125">
+        <v>5.22</v>
+      </c>
+      <c r="F69" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="114"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="114"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="114"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="114"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="114"/>
-      <c r="C12" s="110">
-        <v>12</v>
-      </c>
-      <c r="D12" s="110" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="114"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="114"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="114"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="114"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="114"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="114"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="114"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="110"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="114"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110"/>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="114"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="110"/>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="114"/>
-      <c r="C22" s="110" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="110"/>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="114"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="110"/>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="114"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="110"/>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="B25" s="114"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="110"/>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26" s="114"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="110"/>
-    </row>
-    <row r="27" spans="2:11">
-      <c r="B27" s="114"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="110"/>
-      <c r="I27" s="110"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="110"/>
-    </row>
-    <row r="28" spans="2:11">
-      <c r="B28" s="114"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="110"/>
-    </row>
-    <row r="29" spans="2:11">
-      <c r="B29" s="114"/>
-      <c r="C29" s="110">
-        <v>168000</v>
-      </c>
-      <c r="D29" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="110"/>
-      <c r="H29" s="110"/>
-      <c r="I29" s="110"/>
-      <c r="J29" s="110"/>
-      <c r="K29" s="110"/>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="114"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="110"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="110"/>
-    </row>
-    <row r="31" spans="2:11">
-      <c r="B31" s="114"/>
-      <c r="C31" s="110"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="110"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="110"/>
-      <c r="H31" s="110"/>
-      <c r="I31" s="110"/>
-      <c r="J31" s="110"/>
-      <c r="K31" s="110"/>
-    </row>
-    <row r="32" spans="2:11">
-      <c r="B32" s="114"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="110"/>
-      <c r="K32" s="110"/>
-    </row>
-    <row r="33" spans="2:11">
-      <c r="B33" s="114"/>
-      <c r="C33" s="110"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="110"/>
-      <c r="H33" s="110"/>
-      <c r="I33" s="110"/>
-      <c r="J33" s="110"/>
-      <c r="K33" s="110"/>
-    </row>
-    <row r="34" spans="2:11">
-      <c r="B34" s="114"/>
-      <c r="C34" s="110"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="110"/>
-      <c r="F34" s="110"/>
-      <c r="G34" s="110"/>
-      <c r="H34" s="110"/>
-      <c r="I34" s="110"/>
-      <c r="J34" s="110"/>
-      <c r="K34" s="110"/>
-    </row>
-    <row r="35" spans="2:11">
-      <c r="B35" s="114"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="110"/>
-      <c r="H35" s="110"/>
-      <c r="I35" s="110"/>
-      <c r="J35" s="110"/>
-      <c r="K35" s="110"/>
-    </row>
-    <row r="36" spans="2:11">
-      <c r="B36" s="114"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="110"/>
-      <c r="H36" s="110"/>
-      <c r="I36" s="110"/>
-      <c r="J36" s="110"/>
-      <c r="K36" s="110"/>
-    </row>
-    <row r="37" spans="2:11">
-      <c r="B37" s="114"/>
-      <c r="C37" s="110"/>
-      <c r="D37" s="110"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="110"/>
-      <c r="G37" s="110"/>
-      <c r="H37" s="110"/>
-      <c r="I37" s="110"/>
-      <c r="J37" s="110"/>
-      <c r="K37" s="110"/>
-    </row>
-    <row r="38" spans="2:11">
-      <c r="B38" s="114"/>
-      <c r="C38" s="110"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="110"/>
-      <c r="H38" s="110"/>
-      <c r="I38" s="110"/>
-      <c r="J38" s="110"/>
-      <c r="K38" s="110"/>
-    </row>
-    <row r="39" spans="2:11">
-      <c r="B39" s="114"/>
-      <c r="C39" s="110"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="110"/>
-      <c r="G39" s="110"/>
-      <c r="H39" s="110"/>
-      <c r="I39" s="110"/>
-      <c r="J39" s="110"/>
-      <c r="K39" s="110"/>
-    </row>
-    <row r="40" spans="2:11">
-      <c r="B40" s="114"/>
-      <c r="C40" s="110"/>
-      <c r="D40" s="110"/>
-      <c r="E40" s="110"/>
-      <c r="F40" s="110"/>
-      <c r="G40" s="110"/>
-      <c r="H40" s="110"/>
-      <c r="I40" s="110"/>
-      <c r="J40" s="110"/>
-      <c r="K40" s="110"/>
-    </row>
-    <row r="41" spans="2:11">
-      <c r="B41" s="114"/>
-      <c r="C41" s="110" t="s">
-        <v>60</v>
-      </c>
-      <c r="D41" s="110"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="110"/>
-      <c r="G41" s="110"/>
-      <c r="H41" s="110"/>
-      <c r="I41" s="110"/>
-      <c r="J41" s="110"/>
-      <c r="K41" s="110"/>
-    </row>
-    <row r="42" spans="2:11">
-      <c r="B42" s="114"/>
-      <c r="C42" s="110" t="s">
-        <v>73</v>
-      </c>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="110"/>
-      <c r="H42" s="110"/>
-      <c r="I42" s="110"/>
-      <c r="J42" s="110"/>
-      <c r="K42" s="110"/>
-    </row>
-    <row r="43" spans="2:11">
-      <c r="B43" s="114"/>
-      <c r="C43" s="110"/>
-      <c r="D43" s="110"/>
-      <c r="E43" s="110"/>
-      <c r="F43" s="110"/>
-      <c r="G43" s="110"/>
-      <c r="H43" s="110"/>
-      <c r="I43" s="110"/>
-      <c r="J43" s="110"/>
-      <c r="K43" s="110"/>
-    </row>
-    <row r="44" spans="2:11">
-      <c r="B44" s="114"/>
-      <c r="C44" s="110"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="110"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="110"/>
-      <c r="I44" s="110"/>
-      <c r="J44" s="110"/>
-      <c r="K44" s="110"/>
-    </row>
-    <row r="45" spans="2:11">
-      <c r="B45" s="114"/>
-      <c r="C45" s="110"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="110"/>
-      <c r="F45" s="110"/>
-      <c r="G45" s="110"/>
-      <c r="H45" s="110"/>
-      <c r="I45" s="110"/>
-      <c r="J45" s="110"/>
-      <c r="K45" s="110"/>
-    </row>
-    <row r="46" spans="2:11">
-      <c r="B46" s="114"/>
-      <c r="C46" s="110"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="110"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="110"/>
-      <c r="I46" s="110"/>
-      <c r="J46" s="110"/>
-      <c r="K46" s="110"/>
-    </row>
-    <row r="47" spans="2:11">
-      <c r="B47" s="114"/>
-      <c r="C47" s="110">
-        <v>200621</v>
-      </c>
-      <c r="D47" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47" s="110"/>
-      <c r="F47" s="110"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="110"/>
-      <c r="I47" s="110"/>
-      <c r="J47" s="110"/>
-      <c r="K47" s="110"/>
-    </row>
-    <row r="48" spans="2:11">
-      <c r="B48" s="114"/>
-      <c r="C48" s="110"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="110"/>
-      <c r="F48" s="110"/>
-      <c r="G48" s="110"/>
-      <c r="H48" s="110"/>
-      <c r="I48" s="110"/>
-      <c r="J48" s="110"/>
-      <c r="K48" s="110"/>
-    </row>
-    <row r="49" spans="2:11">
-      <c r="B49" s="114"/>
-      <c r="C49" s="110"/>
-      <c r="D49" s="110"/>
-      <c r="E49" s="110"/>
-      <c r="F49" s="110"/>
-      <c r="G49" s="110"/>
-      <c r="H49" s="110"/>
-      <c r="I49" s="110"/>
-      <c r="J49" s="110"/>
-      <c r="K49" s="110"/>
-    </row>
-    <row r="50" spans="2:11">
-      <c r="B50" s="114"/>
-      <c r="C50" s="110"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="110"/>
-      <c r="F50" s="110"/>
-      <c r="G50" s="110"/>
-      <c r="H50" s="110"/>
-      <c r="I50" s="110"/>
-      <c r="J50" s="110"/>
-      <c r="K50" s="110"/>
-    </row>
-    <row r="51" spans="2:11">
-      <c r="B51" s="114"/>
-      <c r="C51" s="110"/>
-      <c r="D51" s="110"/>
-      <c r="E51" s="110"/>
-      <c r="F51" s="110"/>
-      <c r="G51" s="110"/>
-      <c r="H51" s="110"/>
-      <c r="I51" s="110"/>
-      <c r="J51" s="110"/>
-      <c r="K51" s="110"/>
-    </row>
-    <row r="52" spans="2:11">
-      <c r="B52" s="114"/>
-      <c r="C52" s="110"/>
-      <c r="D52" s="110"/>
-      <c r="E52" s="110"/>
-      <c r="F52" s="110"/>
-      <c r="G52" s="110"/>
-      <c r="H52" s="110"/>
-      <c r="I52" s="110"/>
-      <c r="J52" s="110"/>
-      <c r="K52" s="110"/>
-    </row>
-    <row r="53" spans="2:11">
-      <c r="B53" s="114"/>
-      <c r="C53" s="110"/>
-      <c r="D53" s="110"/>
-      <c r="E53" s="110"/>
-      <c r="F53" s="110"/>
-      <c r="G53" s="110"/>
-      <c r="H53" s="110"/>
-      <c r="I53" s="110"/>
-      <c r="J53" s="110"/>
-      <c r="K53" s="110"/>
-    </row>
-    <row r="54" spans="2:11">
-      <c r="B54" s="114"/>
-      <c r="C54" s="110">
-        <v>2080</v>
-      </c>
-      <c r="D54" s="110" t="s">
-        <v>74</v>
-      </c>
-      <c r="E54" s="110"/>
-      <c r="F54" s="110"/>
-      <c r="G54" s="110"/>
-      <c r="H54" s="110"/>
-      <c r="I54" s="110"/>
-      <c r="J54" s="110"/>
-      <c r="K54" s="110"/>
-    </row>
-    <row r="55" spans="2:11">
-      <c r="B55" s="114"/>
-      <c r="C55" s="110">
-        <v>520</v>
-      </c>
-      <c r="D55" s="110" t="s">
-        <v>74</v>
-      </c>
-      <c r="E55" s="110"/>
-      <c r="F55" s="110"/>
-      <c r="G55" s="110"/>
-      <c r="H55" s="110"/>
-      <c r="I55" s="110"/>
-      <c r="J55" s="110"/>
-      <c r="K55" s="110"/>
-    </row>
-    <row r="56" spans="2:11">
-      <c r="B56" s="114"/>
-      <c r="C56" s="110"/>
-      <c r="D56" s="110"/>
-      <c r="E56" s="110"/>
-      <c r="F56" s="110"/>
-      <c r="G56" s="110"/>
-      <c r="H56" s="110"/>
-      <c r="I56" s="110"/>
-      <c r="J56" s="110"/>
-      <c r="K56" s="110"/>
-    </row>
-    <row r="57" spans="2:11">
-      <c r="B57" s="114"/>
-      <c r="C57" s="110"/>
-      <c r="D57" s="110"/>
-      <c r="E57" s="110"/>
-      <c r="F57" s="110"/>
-      <c r="G57" s="110"/>
-      <c r="H57" s="110"/>
-      <c r="I57" s="110"/>
-      <c r="J57" s="110"/>
-      <c r="K57" s="110"/>
-    </row>
-    <row r="58" spans="2:11">
-      <c r="B58" s="114"/>
-      <c r="C58" s="110"/>
-      <c r="D58" s="110"/>
-      <c r="E58" s="110"/>
-      <c r="F58" s="110"/>
-      <c r="G58" s="110"/>
-      <c r="H58" s="110"/>
-      <c r="I58" s="110"/>
-      <c r="J58" s="110"/>
-      <c r="K58" s="110"/>
-    </row>
-    <row r="59" spans="2:11">
-      <c r="B59" s="114"/>
-      <c r="C59" s="110"/>
-      <c r="D59" s="110"/>
-      <c r="E59" s="110"/>
-      <c r="F59" s="110"/>
-      <c r="G59" s="110"/>
-      <c r="H59" s="110"/>
-      <c r="I59" s="110"/>
-      <c r="J59" s="110"/>
-      <c r="K59" s="110"/>
-    </row>
-    <row r="60" spans="2:11">
-      <c r="B60" s="114"/>
-      <c r="C60" s="110"/>
-      <c r="D60" s="110"/>
-      <c r="E60" s="110"/>
-      <c r="F60" s="110"/>
-      <c r="G60" s="110"/>
-      <c r="H60" s="110"/>
-      <c r="I60" s="110"/>
-      <c r="J60" s="110"/>
-      <c r="K60" s="110"/>
-    </row>
-    <row r="61" spans="2:11">
-      <c r="B61" s="114"/>
-    </row>
-    <row r="62" spans="2:11">
-      <c r="B62" s="114"/>
-    </row>
-    <row r="63" spans="2:11">
-      <c r="B63" s="114"/>
-    </row>
-    <row r="64" spans="2:11">
-      <c r="B64" s="114"/>
-    </row>
-    <row r="65" spans="2:10">
-      <c r="B65" s="114"/>
-    </row>
-    <row r="66" spans="2:10">
-      <c r="B66" s="114"/>
-    </row>
-    <row r="67" spans="2:10">
-      <c r="B67" s="114"/>
-      <c r="C67" s="117" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" ht="17" thickBot="1">
-      <c r="B68" s="114"/>
-      <c r="C68" s="117" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" ht="17" thickBot="1">
-      <c r="B69" s="114"/>
-      <c r="D69" s="133" t="s">
-        <v>102</v>
-      </c>
-      <c r="E69" s="127">
-        <v>5.22</v>
-      </c>
-      <c r="F69" s="117" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="70" spans="2:10">
-      <c r="B70" s="114"/>
-      <c r="E70" s="109">
+      <c r="B70" s="112"/>
+      <c r="E70" s="107">
         <f>1/E69</f>
         <v>0.19157088122605365</v>
       </c>
-      <c r="F70" s="117" t="s">
-        <v>79</v>
+      <c r="F70" s="115" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="2:10">
-      <c r="B71" s="114"/>
-      <c r="D71" s="133"/>
-      <c r="F71" s="117"/>
+      <c r="B71" s="112"/>
+      <c r="D71" s="131"/>
+      <c r="F71" s="115"/>
     </row>
     <row r="72" spans="2:10">
-      <c r="B72" s="114"/>
-      <c r="F72" s="117"/>
+      <c r="B72" s="112"/>
+      <c r="F72" s="115"/>
     </row>
     <row r="73" spans="2:10" ht="17" thickBot="1">
-      <c r="B73" s="114"/>
+      <c r="B73" s="112"/>
     </row>
     <row r="74" spans="2:10" ht="17" thickBot="1">
-      <c r="B74" s="114"/>
-      <c r="D74" s="133" t="s">
-        <v>103</v>
-      </c>
-      <c r="E74" s="127">
+      <c r="B74" s="112"/>
+      <c r="D74" s="131" t="s">
+        <v>95</v>
+      </c>
+      <c r="E74" s="125">
         <v>1.396472478</v>
       </c>
-      <c r="F74" s="133" t="s">
-        <v>78</v>
+      <c r="F74" s="131" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="2:10">
-      <c r="B75" s="114"/>
-      <c r="E75" s="133" t="s">
+      <c r="B75" s="112"/>
+      <c r="E75" s="131" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10">
+      <c r="B76" s="112"/>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="B77" s="112"/>
+      <c r="D77" s="131" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="76" spans="2:10">
-      <c r="B76" s="114"/>
-    </row>
-    <row r="77" spans="2:10">
-      <c r="B77" s="114"/>
-      <c r="D77" s="133" t="s">
-        <v>113</v>
-      </c>
-      <c r="E77" s="109">
+      <c r="E77" s="107">
         <f>((E69*E80)+(E74*E82))/(E80+E82)</f>
         <v>2.5580839748480804</v>
       </c>
-      <c r="F77" s="133" t="s">
-        <v>78</v>
+      <c r="F77" s="131" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="2:10">
-      <c r="B78" s="114"/>
-      <c r="E78" s="109">
+      <c r="B78" s="112"/>
+      <c r="E78" s="107">
         <f>1/E77</f>
         <v>0.39091758121794579</v>
       </c>
-      <c r="F78" s="133" t="s">
-        <v>114</v>
+      <c r="F78" s="131" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="79" spans="2:10" ht="17" thickBot="1">
-      <c r="B79" s="114"/>
+      <c r="B79" s="112"/>
     </row>
     <row r="80" spans="2:10" ht="17" thickBot="1">
-      <c r="B80" s="114"/>
-      <c r="D80" s="126" t="s">
-        <v>105</v>
-      </c>
-      <c r="E80" s="127">
+      <c r="B80" s="112"/>
+      <c r="D80" s="124" t="s">
+        <v>97</v>
+      </c>
+      <c r="E80" s="125">
         <v>7546</v>
       </c>
-      <c r="F80" s="133" t="s">
+      <c r="F80" s="131" t="s">
+        <v>101</v>
+      </c>
+      <c r="G80" s="131"/>
+      <c r="H80" s="131" t="s">
+        <v>78</v>
+      </c>
+      <c r="I80" s="131"/>
+      <c r="J80" s="132" t="s">
         <v>109</v>
       </c>
-      <c r="G80" s="133"/>
-      <c r="H80" s="133" t="s">
-        <v>86</v>
-      </c>
-      <c r="I80" s="133"/>
-      <c r="J80" s="133" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="81" spans="2:10" ht="17" thickBot="1">
-      <c r="B81" s="114"/>
-      <c r="D81" s="126" t="s">
-        <v>106</v>
-      </c>
-      <c r="E81" s="127">
+      <c r="B81" s="112"/>
+      <c r="D81" s="124" t="s">
+        <v>98</v>
+      </c>
+      <c r="E81" s="125">
         <v>68900</v>
       </c>
-      <c r="F81" s="133" t="s">
-        <v>109</v>
-      </c>
-      <c r="G81" s="133"/>
-      <c r="H81" s="133" t="s">
-        <v>86</v>
-      </c>
-      <c r="I81" s="133"/>
-      <c r="J81" s="133"/>
+      <c r="F81" s="131" t="s">
+        <v>101</v>
+      </c>
+      <c r="G81" s="131"/>
+      <c r="H81" s="131" t="s">
+        <v>78</v>
+      </c>
+      <c r="I81" s="131"/>
+      <c r="J81" s="131"/>
     </row>
     <row r="82" spans="2:10" ht="17" thickBot="1">
-      <c r="B82" s="114"/>
-      <c r="D82" s="126" t="s">
-        <v>107</v>
-      </c>
-      <c r="E82" s="127">
+      <c r="B82" s="112"/>
+      <c r="D82" s="124" t="s">
+        <v>99</v>
+      </c>
+      <c r="E82" s="125">
         <v>17292.2</v>
       </c>
-      <c r="F82" s="133" t="s">
-        <v>109</v>
-      </c>
-      <c r="G82" s="133"/>
-      <c r="H82" s="133" t="s">
-        <v>98</v>
-      </c>
-      <c r="I82" s="133"/>
-      <c r="J82" s="133" t="s">
-        <v>111</v>
+      <c r="F82" s="131" t="s">
+        <v>101</v>
+      </c>
+      <c r="G82" s="131"/>
+      <c r="H82" s="131" t="s">
+        <v>90</v>
+      </c>
+      <c r="I82" s="131"/>
+      <c r="J82" s="131" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="2:10" ht="17" thickBot="1">
-      <c r="B83" s="114"/>
-      <c r="D83" s="126" t="s">
-        <v>108</v>
-      </c>
-      <c r="E83" s="127">
+      <c r="B83" s="112"/>
+      <c r="D83" s="124" t="s">
+        <v>100</v>
+      </c>
+      <c r="E83" s="125">
         <v>1469</v>
       </c>
-      <c r="F83" s="133" t="s">
-        <v>109</v>
-      </c>
-      <c r="G83" s="133"/>
-      <c r="H83" s="133" t="s">
-        <v>98</v>
-      </c>
-      <c r="I83" s="133"/>
-      <c r="J83" s="133" t="s">
-        <v>112</v>
+      <c r="F83" s="131" t="s">
+        <v>101</v>
+      </c>
+      <c r="G83" s="131"/>
+      <c r="H83" s="131" t="s">
+        <v>90</v>
+      </c>
+      <c r="I83" s="131"/>
+      <c r="J83" s="131" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="2:10" ht="17" thickBot="1">
-      <c r="B84" s="114"/>
-    </row>
-    <row r="85" spans="2:10" s="124" customFormat="1" ht="17" thickBot="1">
-      <c r="C85" s="125" t="s">
-        <v>86</v>
-      </c>
-      <c r="E85" s="127">
-        <f>E80+E82</f>
-        <v>24838.2</v>
-      </c>
-      <c r="F85" s="126" t="s">
-        <v>90</v>
-      </c>
-      <c r="G85" s="126"/>
-      <c r="H85" s="126"/>
-      <c r="I85" s="126"/>
-    </row>
-    <row r="86" spans="2:10" s="124" customFormat="1" ht="17" thickBot="1">
-      <c r="C86" s="126"/>
-      <c r="E86" s="126">
+      <c r="B84" s="112"/>
+    </row>
+    <row r="85" spans="2:10" s="122" customFormat="1" ht="17" thickBot="1">
+      <c r="C85" s="123" t="s">
+        <v>78</v>
+      </c>
+      <c r="E85" s="125">
+        <f>E80</f>
+        <v>7546</v>
+      </c>
+      <c r="F85" s="124" t="s">
+        <v>82</v>
+      </c>
+      <c r="G85" s="124"/>
+      <c r="H85" s="124"/>
+      <c r="I85" s="124"/>
+    </row>
+    <row r="86" spans="2:10" s="122" customFormat="1" ht="17" thickBot="1">
+      <c r="C86" s="124"/>
+      <c r="E86" s="124">
         <f>E85*1000000</f>
-        <v>24838200000</v>
-      </c>
-      <c r="F86" s="126" t="s">
-        <v>89</v>
-      </c>
-      <c r="G86" s="126"/>
-      <c r="H86" s="126"/>
-      <c r="I86" s="126"/>
-    </row>
-    <row r="87" spans="2:10" s="124" customFormat="1" ht="17" thickBot="1">
-      <c r="C87" s="126"/>
-      <c r="E87" s="128">
-        <f>E81+E83</f>
-        <v>70369</v>
-      </c>
-      <c r="F87" s="126" t="s">
-        <v>92</v>
-      </c>
-      <c r="G87" s="126"/>
-      <c r="H87" s="126"/>
-      <c r="I87" s="126"/>
-    </row>
-    <row r="88" spans="2:10" s="124" customFormat="1">
-      <c r="C88" s="126"/>
-      <c r="E88" s="129">
+        <v>7546000000</v>
+      </c>
+      <c r="F86" s="124" t="s">
+        <v>81</v>
+      </c>
+      <c r="G86" s="124"/>
+      <c r="H86" s="124"/>
+      <c r="I86" s="124"/>
+    </row>
+    <row r="87" spans="2:10" s="122" customFormat="1" ht="17" thickBot="1">
+      <c r="C87" s="124"/>
+      <c r="E87" s="126">
+        <f>E81</f>
+        <v>68900</v>
+      </c>
+      <c r="F87" s="124" t="s">
+        <v>84</v>
+      </c>
+      <c r="G87" s="124"/>
+      <c r="H87" s="124"/>
+      <c r="I87" s="124"/>
+    </row>
+    <row r="88" spans="2:10" s="122" customFormat="1">
+      <c r="C88" s="124"/>
+      <c r="E88" s="127">
         <f>E87*1000000</f>
-        <v>70369000000</v>
-      </c>
-      <c r="F88" s="126" t="s">
-        <v>91</v>
-      </c>
-      <c r="G88" s="126"/>
-      <c r="H88" s="126"/>
-      <c r="I88" s="126"/>
-    </row>
-    <row r="89" spans="2:10" s="124" customFormat="1">
-      <c r="C89" s="126"/>
-      <c r="D89" s="126"/>
-      <c r="E89" s="126"/>
-      <c r="F89" s="126"/>
-      <c r="G89" s="126"/>
-      <c r="H89" s="126"/>
-      <c r="I89" s="126"/>
-    </row>
-    <row r="90" spans="2:10" s="124" customFormat="1">
-      <c r="C90" s="126"/>
-      <c r="D90" s="126"/>
-      <c r="E90" s="130">
+        <v>68900000000</v>
+      </c>
+      <c r="F88" s="124" t="s">
+        <v>83</v>
+      </c>
+      <c r="G88" s="124"/>
+      <c r="H88" s="124"/>
+      <c r="I88" s="124"/>
+    </row>
+    <row r="89" spans="2:10" s="122" customFormat="1">
+      <c r="C89" s="124"/>
+      <c r="D89" s="124"/>
+      <c r="E89" s="124"/>
+      <c r="F89" s="124"/>
+      <c r="G89" s="124"/>
+      <c r="H89" s="124"/>
+      <c r="I89" s="124"/>
+    </row>
+    <row r="90" spans="2:10" s="122" customFormat="1">
+      <c r="C90" s="124"/>
+      <c r="D90" s="124"/>
+      <c r="E90" s="128">
         <f>E88/E86</f>
-        <v>2.8330957959916581</v>
-      </c>
-      <c r="F90" s="126" t="s">
-        <v>93</v>
-      </c>
-      <c r="G90" s="126"/>
-      <c r="H90" s="126"/>
-      <c r="I90" s="126"/>
-    </row>
-    <row r="91" spans="2:10" s="124" customFormat="1">
-      <c r="C91" s="126"/>
-      <c r="D91" s="126"/>
-      <c r="E91" s="126"/>
-      <c r="F91" s="126"/>
-      <c r="G91" s="126"/>
-      <c r="H91" s="126"/>
-      <c r="I91" s="126"/>
-    </row>
-    <row r="92" spans="2:10" s="124" customFormat="1">
-      <c r="C92" s="126"/>
-      <c r="D92" s="126"/>
-      <c r="E92" s="126"/>
-      <c r="F92" s="126"/>
-      <c r="G92" s="126"/>
-      <c r="H92" s="126"/>
-      <c r="I92" s="126"/>
-    </row>
-    <row r="93" spans="2:10" s="124" customFormat="1">
-      <c r="C93" s="126"/>
-      <c r="D93" s="126"/>
-      <c r="E93" s="126"/>
-      <c r="F93" s="126"/>
-      <c r="G93" s="126"/>
-      <c r="H93" s="126"/>
-      <c r="I93" s="126"/>
-    </row>
-    <row r="94" spans="2:10" s="124" customFormat="1">
-      <c r="C94" s="126"/>
-      <c r="D94" s="126" t="str">
+        <v>9.1306652531142323</v>
+      </c>
+      <c r="F90" s="124" t="s">
+        <v>85</v>
+      </c>
+      <c r="G90" s="124"/>
+      <c r="H90" s="124"/>
+      <c r="I90" s="124"/>
+    </row>
+    <row r="91" spans="2:10" s="122" customFormat="1">
+      <c r="C91" s="124"/>
+      <c r="D91" s="124"/>
+      <c r="E91" s="124"/>
+      <c r="F91" s="124"/>
+      <c r="G91" s="124"/>
+      <c r="H91" s="124"/>
+      <c r="I91" s="124"/>
+    </row>
+    <row r="92" spans="2:10" s="122" customFormat="1">
+      <c r="C92" s="124"/>
+      <c r="D92" s="124"/>
+      <c r="E92" s="124"/>
+      <c r="F92" s="124"/>
+      <c r="G92" s="124"/>
+      <c r="H92" s="124"/>
+      <c r="I92" s="124"/>
+    </row>
+    <row r="93" spans="2:10" s="122" customFormat="1">
+      <c r="C93" s="124"/>
+      <c r="D93" s="124"/>
+      <c r="E93" s="124"/>
+      <c r="F93" s="124"/>
+      <c r="G93" s="124"/>
+      <c r="H93" s="124"/>
+      <c r="I93" s="124"/>
+    </row>
+    <row r="94" spans="2:10" s="122" customFormat="1">
+      <c r="C94" s="124"/>
+      <c r="D94" s="124" t="str">
         <f>Dashboard!C11</f>
         <v>output.freight_tonne_kms</v>
       </c>
-      <c r="E94" s="126">
-        <f>E90*E78</f>
-        <v>1.1075069559277897</v>
-      </c>
-      <c r="F94" s="126" t="s">
-        <v>94</v>
-      </c>
-      <c r="G94" s="126"/>
+      <c r="E94" s="124">
+        <f>E90*E70</f>
+        <v>1.7491695887192016</v>
+      </c>
+      <c r="F94" s="124" t="s">
+        <v>86</v>
+      </c>
+      <c r="G94" s="124"/>
       <c r="H94" s="84" t="s">
-        <v>61</v>
-      </c>
-      <c r="I94" s="126"/>
-    </row>
-    <row r="95" spans="2:10" s="124" customFormat="1">
-      <c r="C95" s="126"/>
-      <c r="D95" s="126"/>
-      <c r="E95" s="126"/>
-      <c r="F95" s="126"/>
-      <c r="G95" s="126"/>
+        <v>53</v>
+      </c>
+      <c r="I94" s="124"/>
+    </row>
+    <row r="95" spans="2:10" s="122" customFormat="1">
+      <c r="C95" s="124"/>
+      <c r="D95" s="124"/>
+      <c r="E95" s="124"/>
+      <c r="F95" s="124"/>
+      <c r="G95" s="124"/>
       <c r="H95" s="84"/>
-      <c r="I95" s="126"/>
-    </row>
-    <row r="96" spans="2:10" s="124" customFormat="1">
-      <c r="C96" s="126"/>
-      <c r="D96" s="126"/>
-      <c r="E96" s="126"/>
-      <c r="F96" s="126"/>
-      <c r="G96" s="126"/>
+      <c r="I95" s="124"/>
+    </row>
+    <row r="96" spans="2:10" s="122" customFormat="1">
+      <c r="C96" s="124"/>
+      <c r="D96" s="124"/>
+      <c r="E96" s="124"/>
+      <c r="F96" s="124"/>
+      <c r="G96" s="124"/>
       <c r="H96" s="84"/>
-      <c r="I96" s="126"/>
-    </row>
-    <row r="97" spans="3:9" s="124" customFormat="1">
-      <c r="C97" s="126"/>
-      <c r="D97" s="126"/>
-      <c r="E97" s="126"/>
-      <c r="F97" s="126"/>
-      <c r="G97" s="126"/>
-      <c r="H97" s="126"/>
-      <c r="I97" s="126"/>
-    </row>
-    <row r="98" spans="3:9" s="124" customFormat="1"/>
-    <row r="99" spans="3:9" s="124" customFormat="1"/>
-    <row r="100" spans="3:9" s="124" customFormat="1"/>
-    <row r="101" spans="3:9" s="124" customFormat="1"/>
-    <row r="102" spans="3:9" s="124" customFormat="1"/>
-    <row r="103" spans="3:9" s="124" customFormat="1"/>
-    <row r="104" spans="3:9" s="124" customFormat="1"/>
-    <row r="105" spans="3:9" s="124" customFormat="1"/>
-    <row r="106" spans="3:9" s="124" customFormat="1"/>
-    <row r="107" spans="3:9" s="124" customFormat="1"/>
-    <row r="108" spans="3:9" s="124" customFormat="1"/>
-    <row r="109" spans="3:9" s="124" customFormat="1"/>
-    <row r="110" spans="3:9" s="124" customFormat="1"/>
-    <row r="111" spans="3:9" s="124" customFormat="1"/>
-    <row r="112" spans="3:9" s="124" customFormat="1"/>
-    <row r="113" spans="2:2" s="124" customFormat="1"/>
-    <row r="114" spans="2:2" s="124" customFormat="1"/>
-    <row r="115" spans="2:2" s="124" customFormat="1"/>
-    <row r="116" spans="2:2" s="124" customFormat="1"/>
-    <row r="117" spans="2:2" s="124" customFormat="1"/>
-    <row r="118" spans="2:2" s="124" customFormat="1"/>
-    <row r="119" spans="2:2" s="124" customFormat="1"/>
+      <c r="I96" s="124"/>
+    </row>
+    <row r="97" spans="3:9" s="122" customFormat="1">
+      <c r="C97" s="124"/>
+      <c r="D97" s="132" t="s">
+        <v>106</v>
+      </c>
+      <c r="E97" s="124"/>
+      <c r="F97" s="124"/>
+      <c r="G97" s="124"/>
+      <c r="H97" s="124"/>
+      <c r="I97" s="124"/>
+    </row>
+    <row r="98" spans="3:9" s="122" customFormat="1">
+      <c r="D98" s="132" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="99" spans="3:9" s="122" customFormat="1">
+      <c r="D99" s="132" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="100" spans="3:9" s="122" customFormat="1"/>
+    <row r="101" spans="3:9" s="122" customFormat="1"/>
+    <row r="102" spans="3:9" s="122" customFormat="1"/>
+    <row r="103" spans="3:9" s="122" customFormat="1"/>
+    <row r="104" spans="3:9" s="122" customFormat="1"/>
+    <row r="105" spans="3:9" s="122" customFormat="1"/>
+    <row r="106" spans="3:9" s="122" customFormat="1"/>
+    <row r="107" spans="3:9" s="122" customFormat="1"/>
+    <row r="108" spans="3:9" s="122" customFormat="1"/>
+    <row r="109" spans="3:9" s="122" customFormat="1"/>
+    <row r="110" spans="3:9" s="122" customFormat="1"/>
+    <row r="111" spans="3:9" s="122" customFormat="1"/>
+    <row r="112" spans="3:9" s="122" customFormat="1"/>
+    <row r="113" spans="2:2" s="122" customFormat="1"/>
+    <row r="114" spans="2:2" s="122" customFormat="1"/>
+    <row r="115" spans="2:2" s="122" customFormat="1"/>
+    <row r="116" spans="2:2" s="122" customFormat="1"/>
+    <row r="117" spans="2:2" s="122" customFormat="1"/>
+    <row r="118" spans="2:2" s="122" customFormat="1"/>
+    <row r="119" spans="2:2" s="122" customFormat="1"/>
     <row r="120" spans="2:2">
-      <c r="B120" s="114"/>
+      <c r="B120" s="112"/>
     </row>
     <row r="121" spans="2:2">
-      <c r="B121" s="114"/>
+      <c r="B121" s="112"/>
     </row>
     <row r="122" spans="2:2">
-      <c r="B122" s="114"/>
+      <c r="B122" s="112"/>
     </row>
     <row r="123" spans="2:2">
-      <c r="B123" s="114"/>
+      <c r="B123" s="112"/>
     </row>
     <row r="124" spans="2:2">
-      <c r="B124" s="114"/>
+      <c r="B124" s="112"/>
     </row>
     <row r="125" spans="2:2">
-      <c r="B125" s="114"/>
+      <c r="B125" s="112"/>
     </row>
     <row r="126" spans="2:2">
-      <c r="B126" s="114"/>
+      <c r="B126" s="112"/>
     </row>
     <row r="127" spans="2:2">
-      <c r="B127" s="114"/>
+      <c r="B127" s="112"/>
     </row>
     <row r="128" spans="2:2">
-      <c r="B128" s="114"/>
+      <c r="B128" s="112"/>
     </row>
     <row r="129" spans="2:2">
-      <c r="B129" s="114"/>
+      <c r="B129" s="112"/>
     </row>
     <row r="130" spans="2:2">
-      <c r="B130" s="114"/>
+      <c r="B130" s="112"/>
     </row>
     <row r="131" spans="2:2">
-      <c r="B131" s="114"/>
+      <c r="B131" s="112"/>
     </row>
     <row r="132" spans="2:2">
-      <c r="B132" s="114"/>
+      <c r="B132" s="112"/>
     </row>
     <row r="133" spans="2:2">
-      <c r="B133" s="114"/>
+      <c r="B133" s="112"/>
     </row>
     <row r="134" spans="2:2">
-      <c r="B134" s="114"/>
+      <c r="B134" s="112"/>
     </row>
     <row r="135" spans="2:2">
-      <c r="B135" s="114"/>
+      <c r="B135" s="112"/>
     </row>
     <row r="136" spans="2:2">
-      <c r="B136" s="114"/>
+      <c r="B136" s="112"/>
     </row>
     <row r="137" spans="2:2">
-      <c r="B137" s="114"/>
+      <c r="B137" s="112"/>
     </row>
     <row r="138" spans="2:2">
-      <c r="B138" s="114"/>
+      <c r="B138" s="112"/>
     </row>
     <row r="139" spans="2:2">
-      <c r="B139" s="114"/>
+      <c r="B139" s="112"/>
     </row>
     <row r="140" spans="2:2">
-      <c r="B140" s="114"/>
+      <c r="B140" s="112"/>
     </row>
     <row r="141" spans="2:2">
-      <c r="B141" s="114"/>
+      <c r="B141" s="112"/>
     </row>
     <row r="142" spans="2:2">
-      <c r="B142" s="114"/>
+      <c r="B142" s="112"/>
     </row>
     <row r="143" spans="2:2">
-      <c r="B143" s="114"/>
+      <c r="B143" s="112"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
